--- a/tests/testthat/STUDY001_TA.xlsx
+++ b/tests/testthat/STUDY001_TA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">ARM1</t>
   </si>
   <si>
+    <t xml:space="preserve">Sequence AB</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET1</t>
   </si>
   <si>
@@ -71,19 +74,40 @@
     <t xml:space="preserve">ET3</t>
   </si>
   <si>
+    <t xml:space="preserve">WASHOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET4</t>
+  </si>
+  <si>
     <t xml:space="preserve">TREATMENT B</t>
   </si>
   <si>
-    <t xml:space="preserve">ET4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT C</t>
-  </si>
-  <si>
     <t xml:space="preserve">ET5</t>
   </si>
   <si>
     <t xml:space="preserve">FOLLOW-UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET10</t>
   </si>
 </sst>
 </file>
@@ -465,21 +489,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -493,21 +517,21 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -521,21 +545,21 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -549,21 +573,21 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -577,21 +601,161 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
